--- a/data_capture/excels/ONCO3_SA_dados.xlsx
+++ b/data_capture/excels/ONCO3_SA_dados.xlsx
@@ -982,7 +982,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H911"/>
+  <dimension ref="A1:H913"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -24671,6 +24671,58 @@
         <v>0</v>
       </c>
       <c r="H911">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="912" spans="1:8">
+      <c r="A912" s="2">
+        <v>45796</v>
+      </c>
+      <c r="B912">
+        <v>4.800000190734863</v>
+      </c>
+      <c r="C912">
+        <v>4.920000076293945</v>
+      </c>
+      <c r="D912">
+        <v>4.659999847412109</v>
+      </c>
+      <c r="E912">
+        <v>4.920000076293945</v>
+      </c>
+      <c r="F912">
+        <v>1715700</v>
+      </c>
+      <c r="G912">
+        <v>0</v>
+      </c>
+      <c r="H912">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="913" spans="1:8">
+      <c r="A913" s="2">
+        <v>45797</v>
+      </c>
+      <c r="B913">
+        <v>4.980000019073486</v>
+      </c>
+      <c r="C913">
+        <v>5.050000190734863</v>
+      </c>
+      <c r="D913">
+        <v>4.78000020980835</v>
+      </c>
+      <c r="E913">
+        <v>4.96999979019165</v>
+      </c>
+      <c r="F913">
+        <v>1124900</v>
+      </c>
+      <c r="G913">
+        <v>0</v>
+      </c>
+      <c r="H913">
         <v>0</v>
       </c>
     </row>
@@ -24724,31 +24776,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="C2">
-        <v>7.937486774842817</v>
+        <v>7.930803690040321</v>
       </c>
       <c r="D2">
-        <v>7.599999904632568</v>
+        <v>7.599130868911743</v>
       </c>
       <c r="E2">
         <v>11.80000019073486</v>
       </c>
       <c r="F2">
-        <v>2.829542403756122</v>
+        <v>2.830034501904158</v>
       </c>
       <c r="G2">
         <v>1.769999980926514</v>
       </c>
       <c r="H2">
-        <v>5.868657112121582</v>
+        <v>5.856494069099426</v>
       </c>
       <c r="I2">
-        <v>10.2994110584259</v>
+        <v>10.29823279380798</v>
       </c>
       <c r="J2">
-        <v>4.430753946304321</v>
+        <v>4.441738724708557</v>
       </c>
       <c r="K2">
         <v>15.44646644592285</v>
@@ -24759,31 +24811,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="C3">
-        <v>8.134210445592691</v>
+        <v>8.127304282627607</v>
       </c>
       <c r="D3">
-        <v>7.768222570419312</v>
+        <v>7.758224964141846</v>
       </c>
       <c r="E3">
         <v>6.898421764373779</v>
       </c>
       <c r="F3">
-        <v>2.856104596997473</v>
+        <v>2.85677428312176</v>
       </c>
       <c r="G3">
         <v>1.850000023841858</v>
       </c>
       <c r="H3">
-        <v>6.064999938011169</v>
+        <v>6.049654126167297</v>
       </c>
       <c r="I3">
-        <v>10.50569701194763</v>
+        <v>10.50189900398254</v>
       </c>
       <c r="J3">
-        <v>4.440697073936462</v>
+        <v>4.452244877815247</v>
       </c>
       <c r="K3">
         <v>15.91635894775391</v>
@@ -24794,31 +24846,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="C4">
-        <v>7.711425364148486</v>
+        <v>7.704865220868797</v>
       </c>
       <c r="D4">
-        <v>7.364157915115356</v>
+        <v>7.358315944671631</v>
       </c>
       <c r="E4">
         <v>5.958637237548828</v>
       </c>
       <c r="F4">
-        <v>2.784889922092647</v>
+        <v>2.785353806751164</v>
       </c>
       <c r="G4">
         <v>1.740000009536743</v>
       </c>
       <c r="H4">
-        <v>5.679025650024414</v>
+        <v>5.647500038146973</v>
       </c>
       <c r="I4">
-        <v>10.03520488739014</v>
+        <v>10.03020572662354</v>
       </c>
       <c r="J4">
-        <v>4.356179237365723</v>
+        <v>4.382705688476562</v>
       </c>
       <c r="K4">
         <v>15.126540184021</v>
@@ -24829,31 +24881,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="C5">
-        <v>7.920730506718813</v>
+        <v>7.914204781776981</v>
       </c>
       <c r="D5">
-        <v>7.598261833190918</v>
+        <v>7.589130878448486</v>
       </c>
       <c r="E5">
         <v>6.748456001281738</v>
       </c>
       <c r="F5">
-        <v>2.821036426562944</v>
+        <v>2.821378018471025</v>
       </c>
       <c r="G5">
         <v>1.769999980926514</v>
       </c>
       <c r="H5">
-        <v>5.878654956817627</v>
+        <v>5.864665389060974</v>
       </c>
       <c r="I5">
         <v>10.27999973297119</v>
       </c>
       <c r="J5">
-        <v>4.401344776153564</v>
+        <v>4.415334343910217</v>
       </c>
       <c r="K5">
         <v>15.40647602081299</v>
@@ -24864,31 +24916,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="C6">
-        <v>3287882.893406593</v>
+        <v>3283787.316885965</v>
       </c>
       <c r="D6">
-        <v>1856224</v>
+        <v>1853023</v>
       </c>
       <c r="E6">
         <v>406492</v>
       </c>
       <c r="F6">
-        <v>4731700.7035575</v>
+        <v>4727332.333551141</v>
       </c>
       <c r="G6">
         <v>271462</v>
       </c>
       <c r="H6">
-        <v>1068011</v>
+        <v>1070233</v>
       </c>
       <c r="I6">
-        <v>3623246</v>
+        <v>3622082</v>
       </c>
       <c r="J6">
-        <v>2555235</v>
+        <v>2551849</v>
       </c>
       <c r="K6">
         <v>64963400</v>
@@ -24899,7 +24951,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -24934,7 +24986,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="C8">
         <v>0</v>
